--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Datum</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>14.12.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbesserung des Prototypen (Rewriter funktioniert, Minimizer und Cleanup noch nicht)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update der Dokumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testen des Prototypen</t>
   </si>
   <si>
     <t>total</t>
@@ -1319,34 +1328,44 @@
       </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="2"/>
@@ -1358,11 +1377,11 @@
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B52" s="5">
         <f>SUM(B2:B51)</f>
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -204,10 +204,10 @@
     <t xml:space="preserve">Verbesserung des Prototypen (Triage der initialen samples zwischen av und ml-modell)</t>
   </si>
   <si>
-    <t>13.12.2024</t>
-  </si>
-  <si>
-    <t>14.12.2024</t>
+    <t>23.12.2024</t>
+  </si>
+  <si>
+    <t>24.12.2024</t>
   </si>
   <si>
     <t xml:space="preserve">Verbesserung des Prototypen (Rewriter funktioniert, Minimizer und Cleanup noch nicht)</t>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t xml:space="preserve">Testen des Prototypen</t>
+  </si>
+  <si>
+    <t>25.12.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbesserung, Testen und Debuggen des Prototypen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vergleich des aktuellen Prototypen mit dem Original</t>
   </si>
   <si>
     <t>total</t>
@@ -862,7 +871,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1328,24 +1337,24 @@
       </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1354,7 +1363,7 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1363,25 +1372,37 @@
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="5">
         <f>SUM(B2:B51)</f>
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Datum</t>
   </si>
@@ -222,10 +222,7 @@
     <t>25.12.2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Verbesserung, Testen und Debuggen des Prototypen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vergleich des aktuellen Prototypen mit dem Original</t>
+    <t xml:space="preserve">Dokumentation und Testen des Prototypen</t>
   </si>
   <si>
     <t>total</t>
@@ -871,7 +868,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1343,7 +1340,7 @@
       <c r="B46">
         <v>6</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1354,7 +1351,7 @@
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1363,7 +1360,7 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1372,7 +1369,7 @@
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1381,7 +1378,7 @@
         <v>67</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>68</v>
@@ -1389,20 +1386,15 @@
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="2"/>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="5">
         <f>SUM(B2:B51)</f>
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dokumentation und Testen des Prototypen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schreiben von Evaluierungsscript und starten der Evaluierung</t>
   </si>
   <si>
     <t>total</t>
@@ -1334,7 +1337,7 @@
       </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B46">
@@ -1345,13 +1348,13 @@
       </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1360,7 +1363,7 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1369,32 +1372,37 @@
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" s="5">
         <f>SUM(B2:B51)</f>
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Datum</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Tätigkeit</t>
   </si>
   <si>
+    <t xml:space="preserve">2. Semester</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expose Recherche, schreiben und Review</t>
   </si>
   <si>
@@ -226,6 +229,18 @@
   </si>
   <si>
     <t xml:space="preserve">Schreiben von Evaluierungsscript und starten der Evaluierung</t>
+  </si>
+  <si>
+    <t>27.12.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommentieren von Code</t>
+  </si>
+  <si>
+    <t>28.12.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluierung und Kommentieren von Code</t>
   </si>
   <si>
     <t>total</t>
@@ -349,13 +364,15 @@
     <xf fontId="2" fillId="3" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="3" fillId="4" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="3" borderId="2" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="4" borderId="3" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -871,7 +888,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -894,11 +911,14 @@
       </c>
     </row>
     <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="2">
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -906,18 +926,18 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -925,29 +945,29 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="14.25">
@@ -955,7 +975,7 @@
         <v>0.5</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="14.25">
@@ -963,29 +983,29 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>0.5</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="14.25">
@@ -993,7 +1013,7 @@
         <v>0.5</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="14.25">
@@ -1001,128 +1021,128 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>3.5</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="14.25">
@@ -1130,7 +1150,7 @@
         <v>1.5</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="14.25">
@@ -1138,40 +1158,40 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="14.25">
@@ -1179,84 +1199,84 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>5.5</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" ht="14.25">
@@ -1264,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" ht="14.25">
@@ -1272,18 +1292,18 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" ht="14.25">
@@ -1291,18 +1311,18 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" ht="14.25">
@@ -1311,51 +1331,51 @@
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>10</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" ht="14.25">
@@ -1364,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" ht="14.25">
@@ -1373,18 +1393,18 @@
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" ht="14.25">
@@ -1392,17 +1412,84 @@
       <c r="B51">
         <v>2</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>69</v>
+      <c r="C51" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="5" t="s">
-        <v>70</v>
+      <c r="A52" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B52" s="5">
-        <f>SUM(B2:B51)</f>
-        <v>208</v>
+        <v>4</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="6">
+        <v>10</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="7">
+        <f>SUM(B2:B62)</f>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -240,7 +240,7 @@
     <t>28.12.2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Evaluierung und Kommentieren von Code</t>
+    <t xml:space="preserve">Evaluierung des Prototypen, Code Hygiene und Kommentieren von Code</t>
   </si>
   <si>
     <t>total</t>
@@ -364,16 +364,13 @@
     <xf fontId="2" fillId="3" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="3" fillId="4" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="3" borderId="2" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="4" borderId="3" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -888,7 +885,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1417,79 +1414,79 @@
       </c>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="2">
         <v>4</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="6">
-        <v>10</v>
-      </c>
-      <c r="C53" s="6" t="s">
+      <c r="B53" s="2">
+        <v>11</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" ht="14.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="4">
         <f>SUM(B2:B62)</f>
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Datum</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t xml:space="preserve">Evaluierung des Prototypen, Code Hygiene und Kommentieren von Code</t>
+  </si>
+  <si>
+    <t>29.12.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommentieren von Code, Schreiben von Dokumentation und Code Hygiene</t>
   </si>
   <si>
     <t>total</t>
@@ -364,13 +370,14 @@
     <xf fontId="2" fillId="3" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="3" fillId="4" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="3" borderId="2" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="4" borderId="3" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -885,7 +892,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1436,9 +1443,15 @@
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="2">
+        <v>10</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" s="2"/>
@@ -1481,12 +1494,12 @@
       <c r="C62" s="2"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="4">
+      <c r="A63" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="5">
         <f>SUM(B2:B62)</f>
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Datum</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kommentieren von Code, Schreiben von Dokumentation und Code Hygiene</t>
+  </si>
+  <si>
+    <t>30.12.2024</t>
   </si>
   <si>
     <t>total</t>
@@ -1443,19 +1446,23 @@
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="2">
         <v>10</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="2">
+        <v>9</v>
+      </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" ht="14.25">
@@ -1495,11 +1502,11 @@
     </row>
     <row r="63" ht="14.25">
       <c r="A63" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" s="5">
         <f>SUM(B2:B62)</f>
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Datum</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>30.12.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code optimierung und Schreiben der Dokumentation</t>
   </si>
   <si>
     <t>total</t>
@@ -1463,7 +1466,9 @@
       <c r="B55" s="2">
         <v>9</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" s="2"/>
@@ -1502,7 +1507,7 @@
     </row>
     <row r="63" ht="14.25">
       <c r="A63" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" s="5">
         <f>SUM(B2:B62)</f>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Datum</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t xml:space="preserve">Code optimierung und Schreiben der Dokumentation</t>
+  </si>
+  <si>
+    <t>01.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluierung des Prototypen</t>
+  </si>
+  <si>
+    <t>02.01.2025</t>
   </si>
   <si>
     <t>total</t>
@@ -898,7 +907,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -944,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -963,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -974,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -982,7 +991,7 @@
     </row>
     <row r="8" ht="14.25">
       <c r="B8" s="2">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -990,7 +999,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="B9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1001,7 +1010,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
@@ -1012,7 +1021,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="2">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -1020,7 +1029,7 @@
     </row>
     <row r="12" ht="14.25">
       <c r="B12" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -1028,7 +1037,7 @@
     </row>
     <row r="13" ht="14.25">
       <c r="B13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -1039,7 +1048,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
@@ -1050,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
@@ -1061,7 +1070,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -1206,7 +1215,7 @@
     </row>
     <row r="30" ht="14.25">
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
@@ -1460,24 +1469,34 @@
       </c>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B55" s="2">
         <v>9</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4</v>
+      </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" ht="14.25">
@@ -1507,11 +1526,11 @@
     </row>
     <row r="63" ht="14.25">
       <c r="A63" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B63" s="5">
         <f>SUM(B2:B62)</f>
-        <v>242</v>
+        <v>263.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Datum</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Tätigkeit</t>
   </si>
   <si>
+    <t xml:space="preserve">2. Semester</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expose Recherche, schreiben und Review</t>
   </si>
   <si>
@@ -204,10 +207,10 @@
     <t xml:space="preserve">Verbesserung des Prototypen (Triage der initialen samples zwischen av und ml-modell)</t>
   </si>
   <si>
-    <t>13.12.2024</t>
-  </si>
-  <si>
-    <t>14.12.2024</t>
+    <t>23.12.2024</t>
+  </si>
+  <si>
+    <t>24.12.2024</t>
   </si>
   <si>
     <t xml:space="preserve">Verbesserung des Prototypen (Rewriter funktioniert, Minimizer und Cleanup noch nicht)</t>
@@ -217,6 +220,48 @@
   </si>
   <si>
     <t xml:space="preserve">Testen des Prototypen</t>
+  </si>
+  <si>
+    <t>25.12.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation und Testen des Prototypen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schreiben von Evaluierungsscript und starten der Evaluierung</t>
+  </si>
+  <si>
+    <t>27.12.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommentieren von Code</t>
+  </si>
+  <si>
+    <t>28.12.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluierung des Prototypen, Code Hygiene und Kommentieren von Code</t>
+  </si>
+  <si>
+    <t>29.12.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommentieren von Code, Schreiben von Dokumentation und Code Hygiene</t>
+  </si>
+  <si>
+    <t>30.12.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code optimierung und Schreiben der Dokumentation</t>
+  </si>
+  <si>
+    <t>01.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluierung des Prototypen</t>
+  </si>
+  <si>
+    <t>02.01.2025</t>
   </si>
   <si>
     <t>total</t>
@@ -862,7 +907,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -885,11 +930,14 @@
       </c>
     </row>
     <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="2">
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -897,18 +945,18 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -916,204 +964,204 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" s="2">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="B9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>25</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>3.5</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="14.25">
@@ -1121,7 +1169,7 @@
         <v>1.5</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="14.25">
@@ -1129,125 +1177,125 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>5.5</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" ht="14.25">
@@ -1255,7 +1303,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" ht="14.25">
@@ -1263,18 +1311,18 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" ht="14.25">
@@ -1282,18 +1330,18 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" ht="14.25">
@@ -1302,51 +1350,51 @@
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>10</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>64</v>
+      <c r="C47" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="48" ht="14.25">
@@ -1354,8 +1402,8 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>65</v>
+      <c r="C48" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="49" ht="14.25">
@@ -1363,25 +1411,126 @@
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>66</v>
+      <c r="C49" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="5">
-        <f>SUM(B2:B51)</f>
-        <v>200</v>
+      <c r="A52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="2">
+        <v>11</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="2">
+        <v>10</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="2">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="5">
+        <f>SUM(B2:B62)</f>
+        <v>263.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Datum</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>02.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bauen eines eigenständigen Docker Images (mit GPU support)</t>
   </si>
   <si>
     <t>total</t>
@@ -907,7 +910,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1495,9 +1498,11 @@
         <v>81</v>
       </c>
       <c r="B57" s="2">
-        <v>4</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" s="2"/>
@@ -1526,11 +1531,11 @@
     </row>
     <row r="63" ht="14.25">
       <c r="A63" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" s="5">
         <f>SUM(B2:B62)</f>
-        <v>263.5</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -910,7 +910,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1498,7 +1498,7 @@
         <v>81</v>
       </c>
       <c r="B57" s="2">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>82</v>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="B63" s="5">
         <f>SUM(B2:B62)</f>
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Datum</t>
   </si>
@@ -265,6 +265,21 @@
   </si>
   <si>
     <t xml:space="preserve">Bauen eines eigenständigen Docker Images (mit GPU support)</t>
+  </si>
+  <si>
+    <t>03.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker troubleshooting (lief ember mismatch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ember neu trainieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troubleshooting Lief</t>
+  </si>
+  <si>
+    <t>04.01.2025</t>
   </si>
   <si>
     <t>total</t>
@@ -910,7 +925,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1483,45 +1498,63 @@
       </c>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B56" s="2">
         <v>5</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B57" s="2">
         <v>7.5</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="B59" s="2">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3</v>
+      </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" ht="14.25">
@@ -1530,12 +1563,15 @@
       <c r="C62" s="2"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="5">
-        <f>SUM(B2:B62)</f>
-        <v>267</v>
+      <c r="B63"/>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="5">
+        <f>SUM(B2:B71)</f>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Datum</t>
   </si>
@@ -280,6 +280,30 @@
   </si>
   <si>
     <t>04.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pytorch GPU troubleshooting</t>
+  </si>
+  <si>
+    <t>05.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluierung MAB-malware av modus</t>
+  </si>
+  <si>
+    <t>06.01.2025</t>
+  </si>
+  <si>
+    <t>07.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debuggen des MAB-malware av modus</t>
+  </si>
+  <si>
+    <t>08.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pytorch Container test</t>
   </si>
   <si>
     <t>total</t>
@@ -925,7 +949,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1549,29 +1573,75 @@
       </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B61" s="2">
         <v>3</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="A62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="63" ht="14.25">
-      <c r="B63"/>
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B72" s="5">
         <f>SUM(B2:B71)</f>
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Datum</t>
   </si>
@@ -280,6 +280,39 @@
   </si>
   <si>
     <t>04.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evalusierung AV modus</t>
+  </si>
+  <si>
+    <t>05.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troubleshooting AV modus</t>
+  </si>
+  <si>
+    <t>06.01.2025</t>
+  </si>
+  <si>
+    <t>07.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluierung av modus</t>
+  </si>
+  <si>
+    <t>08.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluierung AV modus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pytorch troubleshooting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorbereitung für Meeting</t>
+  </si>
+  <si>
+    <t>09.01.2025</t>
   </si>
   <si>
     <t>total</t>
@@ -925,7 +958,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1549,29 +1582,94 @@
       </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B61" s="2">
         <v>3</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="A62" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="2">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="63" ht="14.25">
-      <c r="B63"/>
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B72" s="5">
         <f>SUM(B2:B71)</f>
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Datum</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>09.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fertigstellung Dockerimage mit GPU support</t>
   </si>
   <si>
     <t>total</t>
@@ -436,14 +439,13 @@
     <xf fontId="2" fillId="3" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="3" fillId="4" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="3" borderId="2" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="4" borderId="3" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1588,18 +1590,18 @@
       <c r="B61" s="2">
         <v>3</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B62" s="2">
         <v>4</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1657,19 +1659,27 @@
         <v>98</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C68" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="69" ht="14.25">
+      <c r="B69">
+        <v>1.5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>99</v>
+      </c>
+    </row>
     <row r="72" ht="14.25">
-      <c r="A72" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B72" s="5">
+      <c r="A72" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="4">
         <f>SUM(B2:B71)</f>
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Datum</t>
   </si>
@@ -316,6 +316,15 @@
   </si>
   <si>
     <t xml:space="preserve">Fertigstellung Dockerimage mit GPU support</t>
+  </si>
+  <si>
+    <t>11.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check der Samples auf Funktionalität</t>
+  </si>
+  <si>
+    <t>12.01.2025</t>
   </si>
   <si>
     <t>total</t>
@@ -960,7 +969,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1673,13 +1682,36 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" ht="14.25">
-      <c r="A72" s="4" t="s">
+    <row r="70" ht="14.25">
+      <c r="A70" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="4">
-        <f>SUM(B2:B71)</f>
-        <v>294</v>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25"/>
+    <row r="96" ht="14.25">
+      <c r="A96" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" s="4">
+        <f>SUM(B2:B95)</f>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Datum</t>
   </si>
@@ -321,10 +321,16 @@
     <t>11.01.2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Check der Samples auf Funktionalität</t>
+    <t xml:space="preserve">Check der Samples auf Funktionalität (Generieren von Samples)</t>
   </si>
   <si>
     <t>12.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check der Samples auf Funktionalität (Generieren von Samples und Auswahl der Stichproben)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamische Analyse der Modifizierten Malware Samples</t>
   </si>
   <si>
     <t>total</t>
@@ -969,7 +975,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A63" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1701,17 +1707,24 @@
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="96" ht="14.25">
       <c r="A96" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B96" s="4">
         <f>SUM(B2:B95)</f>
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Datum</t>
   </si>
@@ -321,16 +321,22 @@
     <t>11.01.2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Check der Samples auf Funktionalität (Generieren von Samples)</t>
+    <t xml:space="preserve">Check der Samples auf Funktionalität</t>
   </si>
   <si>
     <t>12.01.2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Check der Samples auf Funktionalität (Generieren von Samples und Auswahl der Stichproben)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dynamische Analyse der Modifizierten Malware Samples</t>
+  </si>
+  <si>
+    <t>14.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check der Samples auf Funktionalität </t>
+  </si>
+  <si>
+    <t>15.01.2025</t>
   </si>
   <si>
     <t>total</t>
@@ -340,7 +346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -364,6 +370,12 @@
       <b/>
       <sz val="11.000000"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -454,13 +466,14 @@
     <xf fontId="2" fillId="3" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="3" fillId="4" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="3" borderId="2" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="4" borderId="3" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1707,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" ht="14.25">
@@ -1715,16 +1728,41 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" t="s">
         <v>104</v>
       </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="C75" s="4"/>
     </row>
     <row r="96" ht="14.25">
-      <c r="A96" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B96" s="4">
+      <c r="A96" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="5">
         <f>SUM(B2:B95)</f>
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Datum</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>15.01.2025</t>
+  </si>
+  <si>
+    <t>16.01.2025</t>
   </si>
   <si>
     <t>total</t>
@@ -346,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -370,12 +373,6 @@
       <b/>
       <sz val="11.000000"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.000000"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -466,14 +463,13 @@
     <xf fontId="2" fillId="3" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="3" fillId="4" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="3" borderId="2" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="4" borderId="3" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1754,15 +1750,23 @@
       </c>
     </row>
     <row r="75" ht="14.25">
-      <c r="C75" s="4"/>
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="96" ht="14.25">
-      <c r="A96" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B96" s="5">
+      <c r="A96" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="4">
         <f>SUM(B2:B95)</f>
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -1754,7 +1754,7 @@
         <v>107</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>105</v>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B96" s="4">
         <f>SUM(B2:B95)</f>
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Datum</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>16.01.2025</t>
+  </si>
+  <si>
+    <t>20.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bauen eines eigenständigen Docker Images</t>
   </si>
   <si>
     <t>total</t>
@@ -984,7 +990,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C61" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1760,13 +1766,24 @@
         <v>105</v>
       </c>
     </row>
+    <row r="76" ht="14.25">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="96" ht="14.25">
       <c r="A96" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="4">
         <f>SUM(B2:B95)</f>
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Datum</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bauen eines eigenständigen Docker Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bauen eines eigenständigen Docker Images &amp; anpassen der Dokumentation</t>
   </si>
   <si>
     <t>total</t>
@@ -990,7 +993,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="C61" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1777,13 +1780,21 @@
         <v>109</v>
       </c>
     </row>
+    <row r="77" ht="14.25">
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="96" ht="14.25">
       <c r="A96" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B96" s="4">
         <f>SUM(B2:B95)</f>
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Datum</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bauen eines eigenständigen Docker Images</t>
+  </si>
+  <si>
+    <t>21.01.2025</t>
   </si>
   <si>
     <t xml:space="preserve">Bauen eines eigenständigen Docker Images &amp; anpassen der Dokumentation</t>
@@ -1781,16 +1784,19 @@
       </c>
     </row>
     <row r="77" ht="14.25">
+      <c r="A77" t="s">
+        <v>110</v>
+      </c>
       <c r="B77">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" ht="14.25">
       <c r="A96" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B96" s="4">
         <f>SUM(B2:B95)</f>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Datum</t>
   </si>
@@ -352,6 +352,33 @@
   </si>
   <si>
     <t xml:space="preserve">Bauen eines eigenständigen Docker Images &amp; anpassen der Dokumentation</t>
+  </si>
+  <si>
+    <t>27.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anpassen der Dokumentation</t>
+  </si>
+  <si>
+    <t>28.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code optimierung</t>
+  </si>
+  <si>
+    <t>29.01.2025</t>
+  </si>
+  <si>
+    <t>30.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleanup des git repos und Tests</t>
+  </si>
+  <si>
+    <t>31.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests und Abgabe des Projekts</t>
   </si>
   <si>
     <t>total</t>
@@ -996,7 +1023,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A72" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1794,13 +1821,68 @@
         <v>111</v>
       </c>
     </row>
+    <row r="78" ht="14.25">
+      <c r="A78" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="96" ht="14.25">
       <c r="A96" s="4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B96" s="4">
         <f>SUM(B2:B95)</f>
-        <v>332</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Datum</t>
   </si>
@@ -372,13 +372,7 @@
     <t>30.01.2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Cleanup des git repos und Tests</t>
-  </si>
-  <si>
-    <t>31.01.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests und Abgabe des Projekts</t>
+    <t xml:space="preserve">Cleanup des git repos, Tests und Abgabe des Projekts</t>
   </si>
   <si>
     <t>total</t>
@@ -1865,24 +1859,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" ht="14.25">
-      <c r="A82" t="s">
-        <v>119</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s">
-        <v>120</v>
-      </c>
-    </row>
+    <row r="82" ht="14.25"/>
     <row r="96" ht="14.25">
       <c r="A96" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B96" s="4">
         <f>SUM(B2:B95)</f>
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitaufzeichnung.xlsx
+++ b/Documentation/Zeitaufzeichnung.xlsx
@@ -1017,7 +1017,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1853,7 +1853,7 @@
         <v>117</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
         <v>118</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B96" s="4">
         <f>SUM(B2:B95)</f>
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
